--- a/heatload_calc/Python/JSON_Spec/20190105JSON仕様.xlsx
+++ b/heatload_calc/Python/JSON_Spec/20190105JSON仕様.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\satoh\Documents\sourcetree\kiseisokue7\e7_inputdataconvert\heatload_calc\Python\JSON_Spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{252DD656-2709-4132-841F-86B7BAFE1135}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F312E-EF15-43F9-846C-26AB6B5B7491}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="235">
   <si>
     <t>{</t>
   </si>
@@ -2499,10 +2499,10 @@
   <dimension ref="A1:N173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C163" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G155" sqref="G155"/>
+      <selection pane="bottomRight" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4344,20 +4344,23 @@
         <v>161</v>
       </c>
     </row>
-    <row r="127" spans="1:14">
-      <c r="F127" s="1" t="s">
+    <row r="127" spans="1:14" s="6" customFormat="1">
+      <c r="A127" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G127" s="1">
+      <c r="G127" s="6">
         <v>3.8100000000000002E-2</v>
       </c>
-      <c r="K127" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L127" s="1" t="s">
+      <c r="K127" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L127" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="7" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4871,7 +4874,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="2:13" s="4" customFormat="1">
+    <row r="161" spans="1:13" s="4" customFormat="1">
       <c r="G161" s="4" t="s">
         <v>52</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="2:13" s="4" customFormat="1">
+    <row r="162" spans="1:13" s="4" customFormat="1">
       <c r="G162" s="4" t="s">
         <v>53</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="2:13" s="4" customFormat="1">
+    <row r="163" spans="1:13" s="4" customFormat="1">
       <c r="G163" s="4" t="s">
         <v>54</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="164" spans="2:13" s="4" customFormat="1">
+    <row r="164" spans="1:13" s="4" customFormat="1">
       <c r="G164" s="4" t="s">
         <v>55</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165" spans="2:13" s="4" customFormat="1">
+    <row r="165" spans="1:13" s="4" customFormat="1">
       <c r="G165" s="4" t="s">
         <v>56</v>
       </c>
@@ -4956,12 +4959,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="166" spans="2:13" s="4" customFormat="1">
+    <row r="166" spans="1:13" s="4" customFormat="1">
       <c r="F166" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="167" spans="2:13" s="6" customFormat="1">
+    <row r="167" spans="1:13" s="6" customFormat="1">
       <c r="F167" s="6" t="s">
         <v>98</v>
       </c>
@@ -4975,7 +4978,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="168" spans="2:13">
+    <row r="168" spans="1:13">
       <c r="F168" s="1" t="s">
         <v>99</v>
       </c>
@@ -4992,39 +4995,42 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" spans="2:13">
-      <c r="F169" s="1" t="s">
+    <row r="169" spans="1:13" s="6" customFormat="1">
+      <c r="A169" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G169" s="1">
+      <c r="G169" s="6">
         <v>1.24E-2</v>
       </c>
-      <c r="K169" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L169" s="1" t="s">
+      <c r="K169" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L169" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="7" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="170" spans="2:13">
+    <row r="170" spans="1:13">
       <c r="E170" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="2:13">
+    <row r="171" spans="1:13">
       <c r="D171" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="172" spans="2:13">
+    <row r="172" spans="1:13">
       <c r="C172" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="173" spans="2:13">
+    <row r="173" spans="1:13">
       <c r="B173" s="1" t="s">
         <v>32</v>
       </c>
